--- a/data/trans_bre/P20D1_R_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20D1_R_2023-Estudios-trans_bre.xlsx
@@ -555,7 +555,7 @@
         <v>24.45881390702082</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1.207648236232841</v>
+        <v>1.20764823623284</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.844941344725269</v>
+        <v>-2.013981458493028</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1290720339263703</v>
+        <v>-0.1286900479744279</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>49.59034723571118</v>
+        <v>49.13698548156173</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6.68705814665358</v>
+        <v>6.69845883429747</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>43.17692009576229</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3.386112763977915</v>
+        <v>3.386112763977914</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>23.41704604208219</v>
+        <v>22.42948329482482</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.8020392370190941</v>
+        <v>0.8986995487669105</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>62.33940868101291</v>
+        <v>63.03765598414726</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>12.65170200535632</v>
+        <v>12.32079935147815</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.44804599152092</v>
+        <v>20.26791617549324</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>73.46918344129715</v>
+        <v>73.7089733623382</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -691,7 +691,7 @@
         <v>38.21241535229342</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>2.985311664944632</v>
+        <v>2.985311664944631</v>
       </c>
     </row>
     <row r="14">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>23.10903984758148</v>
+        <v>24.26342485387618</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.9906225243885869</v>
+        <v>1.2045085802398</v>
       </c>
     </row>
     <row r="15">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>51.80877345361334</v>
+        <v>54.17810214826662</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6.613297840183409</v>
+        <v>7.231026330653149</v>
       </c>
     </row>
     <row r="16">
